--- a/MindManager3/Sec01-08-5.xlsx
+++ b/MindManager3/Sec01-08-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o334-my.sharepoint.com/personal/mskn55_iri-net_tokyo/Documents/git_repository_Duo/Sharing_Knowledge3/MindManager3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_10280489835587DA884AAFADD5DC78F3217A3038" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3F032C8-FBC9-4276-BC45-5D061C504693}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_10280489835587DA884AAFADD5DC78F3217A3038" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7957266-8169-4D32-AF76-93E4CC007538}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1910" windowWidth="17620" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="1140" windowWidth="17620" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec01-08-5【成果物】専門員業務ハンドブック【目次】" sheetId="1" r:id="rId1"/>
@@ -1249,16 +1249,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:U196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="17.90625" style="1"/>
+    <col min="1" max="16384" width="9.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,6 +3128,6 @@
     <hyperlink ref="U196" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="70" fitToWidth="2" fitToHeight="0" orientation="landscape" r:id="rId54"/>
 </worksheet>
 </file>